--- a/email_system/3Dclientelle.xlsx
+++ b/email_system/3Dclientelle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t xml:space="preserve">Client</t>
   </si>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Paid Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Remaining_Days</t>
   </si>
   <si>
@@ -38,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">masikotimo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliwa</t>
   </si>
   <si>
     <t xml:space="preserve">Nakyagaba Farida</t>
@@ -56,14 +59,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,11 +91,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,7 +151,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,17 +180,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="15.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -187,64 +203,102 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="C2" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <f aca="false">D2+C2</f>
+        <v>44227</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <f aca="true">E2-TODAY()</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>44229</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <f aca="false">D3+C3</f>
+        <v>44289</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <f aca="true">E3-TODAY()</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>44237</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <f aca="false">D4+C4</f>
+        <v>44297</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <f aca="true">E4-TODAY()</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>44197</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <f aca="false">D5+C5</f>
+        <v>44257</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <f aca="true">E5-TODAY()</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/email_system/3Dclientelle.xlsx
+++ b/email_system/3Dclientelle.xlsx
@@ -183,10 +183,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.33"/>
@@ -232,7 +232,7 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="true">E2-TODAY()</f>
-        <v>-11</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,7 +254,7 @@
       </c>
       <c r="F3" s="3" t="n">
         <f aca="true">E3-TODAY()</f>
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,7 +276,7 @@
       </c>
       <c r="F4" s="3" t="n">
         <f aca="true">E4-TODAY()</f>
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,7 +298,7 @@
       </c>
       <c r="F5" s="3" t="n">
         <f aca="true">E5-TODAY()</f>
-        <v>19</v>
+        <v>-8</v>
       </c>
     </row>
   </sheetData>

--- a/email_system/3Dclientelle.xlsx
+++ b/email_system/3Dclientelle.xlsx
@@ -62,7 +62,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -183,10 +183,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.33"/>
@@ -232,7 +232,7 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="true">E2-TODAY()</f>
-        <v>-38</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,7 +254,7 @@
       </c>
       <c r="F3" s="3" t="n">
         <f aca="true">E3-TODAY()</f>
-        <v>24</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,18 +265,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>44237</v>
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">D4+C4</f>
-        <v>44297</v>
+        <v>44327</v>
       </c>
       <c r="F4" s="3" t="n">
         <f aca="true">E4-TODAY()</f>
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,7 +298,7 @@
       </c>
       <c r="F5" s="3" t="n">
         <f aca="true">E5-TODAY()</f>
-        <v>-8</v>
+        <v>-59</v>
       </c>
     </row>
   </sheetData>
